--- a/data/globalTables/productPrintList.xlsx
+++ b/data/globalTables/productPrintList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>machineID</t>
   </si>
@@ -24,18 +24,12 @@
     <t>dispatchCode</t>
   </si>
   <si>
-    <t>salesOrderCode</t>
-  </si>
-  <si>
     <t>设备编号</t>
   </si>
   <si>
     <t>工单编号</t>
   </si>
   <si>
-    <t>订单编号</t>
-  </si>
-  <si>
     <t>scanTime1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -52,14 +46,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S117109</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>接收大卷扫描条码信息</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -92,107 +78,95 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302L3180120143102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302L3180120143103</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302L3180120143104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302L3180120143105</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302L3180120143106</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302L3180120143107</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302L3180120143108</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302L3180120143109</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302L3180120143110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302L3180120143111</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302P2180120143101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302P2180120143102</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302P2180120143103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302P2180120143104</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302P2180120143105</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302P2180120143106</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302P2180120143107</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302P2180120143108</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302P2180120143109</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S17110906L302P2180120143110</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>S17110906L302P2180120143111</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018-01-21 13:34</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>操作员工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>workerID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>largeIndex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804523</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1804523121L3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -569,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:J13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -582,434 +556,339 @@
     <col min="3" max="3" width="17.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="13.375" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="15" max="15" width="9.875" customWidth="1"/>
-    <col min="16" max="16" width="16.625" customWidth="1"/>
-    <col min="18" max="18" width="9.625" customWidth="1"/>
-    <col min="19" max="19" width="15.625" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="16.625" customWidth="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="18" max="18" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I6" s="2">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I9" s="2">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I11" s="2">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1801306</v>
-      </c>
-      <c r="I13" s="2">
-        <v>11</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
